--- a/medicine/Enfance/Laurent_de_Brunhoff/Laurent_de_Brunhoff.xlsx
+++ b/medicine/Enfance/Laurent_de_Brunhoff/Laurent_de_Brunhoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent de Brunhoff, né le 30 août 1925 à Paris et mort le 22 mars 2024 à Key West (Floride), est un auteur et illustrateur français, co-créateur du personnage de Babar.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent de Brunhoff est né le 30 août 1925 à Paris. Il est le fils aîné de Jean de Brunhoff, petit-fils de l'éditeur Maurice de Brunhoff et arrière-arrière-petit-fils naturel d’Oscar Ier, roi de Suède et de Norvège, et de la pianiste Cécile Sabouraud, sœur du peintre Émile Sabouraud[1],[2]. Son frère Mathieu est pédiatre et son frère cadet, Thierry de Brunhoff, est d'abord pianiste comme sa mère, puis moine.
-À 13 ans, au décès soudain de son père, il prend, poussé par son oncle paternel Michel de Brunhoff, le relais de son père, d'abord en achevant la mise en couleurs de deux de ses titres qui étaient en chantier, puis en publiant Babar et ce coquin d'Arthur en 1946[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent de Brunhoff est né le 30 août 1925 à Paris. Il est le fils aîné de Jean de Brunhoff, petit-fils de l'éditeur Maurice de Brunhoff et arrière-arrière-petit-fils naturel d’Oscar Ier, roi de Suède et de Norvège, et de la pianiste Cécile Sabouraud, sœur du peintre Émile Sabouraud,. Son frère Mathieu est pédiatre et son frère cadet, Thierry de Brunhoff, est d'abord pianiste comme sa mère, puis moine.
+À 13 ans, au décès soudain de son père, il prend, poussé par son oncle paternel Michel de Brunhoff, le relais de son père, d'abord en achevant la mise en couleurs de deux de ses titres qui étaient en chantier, puis en publiant Babar et ce coquin d'Arthur en 1946.
 Il a publié depuis[Depuis quand ?] quinze nouveaux titres, augmentant à sa façon le monde imaginaire de Babar. Ses albums ont tous été publiés chez Hachette Jeunesse, maison d'édition où son père avait publié ses albums après que les premiers eurent été publiés aux Éditions du Jardin des Modes.
 Il continue ainsi les aventures de Babar créées par son père, assisté par Paul Vleminckx.
-En 1983, il co-écrit avec Jean-Jacques Debout, et sur une musique de ce dernier, le texte de la chanson Babar, interprétée par Chantal Goya, qui devient l'un des grands succès de la chanteuse[4],[5].
-Il s'installe aux États-Unis en 1985. Il épouse d’abord Marie-Claude Bloch, puis Phyllis Rose[1].
+En 1983, il co-écrit avec Jean-Jacques Debout, et sur une musique de ce dernier, le texte de la chanson Babar, interprétée par Chantal Goya, qui devient l'un des grands succès de la chanteuse,.
+Il s'installe aux États-Unis en 1985. Il épouse d’abord Marie-Claude Bloch, puis Phyllis Rose.
 Laurent de Brunhoff est le cousin de Brigitte Sabouraud, qui est autrice, compositrice, interprète de chansons françaises et cofondatrice du cabaret L'Écluse.
-En décembre 2011, il est élevé au grade de commandeur dans l'ordre des Arts et des Lettres[6].
-Il meurt le 22 mars 2024 à son domicile de Key West en Floride[7].
+En décembre 2011, il est élevé au grade de commandeur dans l'ordre des Arts et des Lettres.
+Il meurt le 22 mars 2024 à son domicile de Key West en Floride.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Babar, Hachette Jeunesse
 Babar et ce coquin d'Arthur (1946)
